--- a/KetQuaTest_CheckoutServlet.xlsx
+++ b/KetQuaTest_CheckoutServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -41,13 +41,13 @@
     <t>Chưa đăng nhập</t>
   </si>
   <si>
+    <t>User=null</t>
+  </si>
+  <si>
     <t>User=null -&gt; gọi doGet()</t>
   </si>
   <si>
-    <t>User=null</t>
-  </si>
-  <si>
-    <t>Redirect Login</t>
+    <t>Lưu RedirectUrl &amp; Chuyển Login</t>
   </si>
   <si>
     <t>OK</t>
@@ -56,18 +56,33 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>CHECKOUT_05</t>
+  </si>
+  <si>
+    <t>Vào trang Checkout (POST)</t>
+  </si>
+  <si>
+    <t>User, Cart(1)</t>
+  </si>
+  <si>
+    <t>Gọi doPost -&gt; Delegated to doGet</t>
+  </si>
+  <si>
+    <t>Forward Checkout.jsp</t>
+  </si>
+  <si>
     <t>CHECKOUT_03</t>
   </si>
   <si>
     <t>Giỏ hàng Rỗng</t>
   </si>
   <si>
+    <t>Size=0</t>
+  </si>
+  <si>
     <t>Cart size=0</t>
   </si>
   <si>
-    <t>Size=0</t>
-  </si>
-  <si>
     <t>Redirect view-cart</t>
   </si>
   <si>
@@ -77,25 +92,19 @@
     <t>Giỏ hàng Null</t>
   </si>
   <si>
+    <t>Cart=null</t>
+  </si>
+  <si>
     <t>User ok, Cart=null</t>
   </si>
   <si>
-    <t>Cart=null</t>
-  </si>
-  <si>
     <t>CHECKOUT_04</t>
   </si>
   <si>
-    <t>Vào trang Checkout</t>
+    <t>Vào trang Checkout (GET)</t>
   </si>
   <si>
     <t>User ok, Cart ok</t>
-  </si>
-  <si>
-    <t>User, Cart(1)</t>
-  </si>
-  <si>
-    <t>Forward Checkout.jsp</t>
   </si>
 </sst>
 </file>
@@ -173,17 +182,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.65234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.3984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.15625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="31.11328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.609375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -271,7 +280,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -282,24 +291,47 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>13</v>
       </c>
     </row>
